--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam23-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam23-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Adam23</t>
+  </si>
+  <si>
+    <t>Itga5</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adam23</t>
-  </si>
-  <si>
-    <t>Itga5</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H2">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I2">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J2">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N2">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q2">
-        <v>0.8377338650505555</v>
+        <v>9.417191053286112</v>
       </c>
       <c r="R2">
-        <v>7.539604785454999</v>
+        <v>84.754719479575</v>
       </c>
       <c r="S2">
-        <v>0.0002149756562353315</v>
+        <v>0.002208778812163032</v>
       </c>
       <c r="T2">
-        <v>0.0002149756562353315</v>
+        <v>0.002208778812163032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H3">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I3">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J3">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q3">
-        <v>2.963570283924445</v>
+        <v>20.13059362144444</v>
       </c>
       <c r="R3">
-        <v>26.67213255532</v>
+        <v>181.175342593</v>
       </c>
       <c r="S3">
-        <v>0.0007604986418302879</v>
+        <v>0.00472158082125722</v>
       </c>
       <c r="T3">
-        <v>0.0007604986418302879</v>
+        <v>0.00472158082125722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H4">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I4">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J4">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N4">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q4">
-        <v>1.158941498928222</v>
+        <v>12.95593839593889</v>
       </c>
       <c r="R4">
-        <v>10.430473490354</v>
+        <v>116.60344556345</v>
       </c>
       <c r="S4">
-        <v>0.0002974025757636262</v>
+        <v>0.003038783227261121</v>
       </c>
       <c r="T4">
-        <v>0.0002974025757636263</v>
+        <v>0.003038783227261121</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H5">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I5">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J5">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N5">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q5">
-        <v>0.3080634121335555</v>
+        <v>1.878918109455555</v>
       </c>
       <c r="R5">
-        <v>2.772570709202</v>
+        <v>16.9102629851</v>
       </c>
       <c r="S5">
-        <v>7.905390595796181E-05</v>
+        <v>0.0004406955839030872</v>
       </c>
       <c r="T5">
-        <v>7.905390595796181E-05</v>
+        <v>0.0004406955839030874</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H6">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I6">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J6">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N6">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q6">
-        <v>0.869797260518</v>
+        <v>7.128773082994444</v>
       </c>
       <c r="R6">
-        <v>7.828175344661999</v>
+        <v>64.15895774694999</v>
       </c>
       <c r="S6">
-        <v>0.000223203626679538</v>
+        <v>0.001672036051232259</v>
       </c>
       <c r="T6">
-        <v>0.000223203626679538</v>
+        <v>0.001672036051232259</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H7">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I7">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J7">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N7">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q7">
-        <v>0.8576202488591111</v>
+        <v>9.086131822852776</v>
       </c>
       <c r="R7">
-        <v>7.718582239731999</v>
+        <v>81.77518640567499</v>
       </c>
       <c r="S7">
-        <v>0.0002200788143953922</v>
+        <v>0.002131129690507272</v>
       </c>
       <c r="T7">
-        <v>0.0002200788143953922</v>
+        <v>0.002131129690507272</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>43.730186</v>
       </c>
       <c r="I8">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J8">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N8">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q8">
-        <v>356.1668893430655</v>
+        <v>589.4235751354173</v>
       </c>
       <c r="R8">
-        <v>3205.50200408759</v>
+        <v>5304.812176218755</v>
       </c>
       <c r="S8">
-        <v>0.09139801309238171</v>
+        <v>0.1382478381060557</v>
       </c>
       <c r="T8">
-        <v>0.09139801309238173</v>
+        <v>0.1382478381060558</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>43.730186</v>
       </c>
       <c r="I9">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J9">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q9">
         <v>1259.977247441485</v>
@@ -1013,10 +1013,10 @@
         <v>11339.79522697336</v>
       </c>
       <c r="S9">
-        <v>0.3233299343747715</v>
+        <v>0.2955245393460637</v>
       </c>
       <c r="T9">
-        <v>0.3233299343747715</v>
+        <v>0.2955245393460637</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>43.730186</v>
       </c>
       <c r="I10">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J10">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N10">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q10">
-        <v>492.7299776510102</v>
+        <v>810.914367708805</v>
       </c>
       <c r="R10">
-        <v>4434.569798859093</v>
+        <v>7298.229309379245</v>
       </c>
       <c r="S10">
-        <v>0.1264422446213915</v>
+        <v>0.1901979543304242</v>
       </c>
       <c r="T10">
-        <v>0.1264422446213916</v>
+        <v>0.1901979543304242</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>43.730186</v>
       </c>
       <c r="I11">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J11">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N11">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q11">
-        <v>130.9747543909996</v>
+        <v>117.6018011310836</v>
       </c>
       <c r="R11">
-        <v>1178.772789518996</v>
+        <v>1058.416210179752</v>
       </c>
       <c r="S11">
-        <v>0.03361017734882583</v>
+        <v>0.02758321086837316</v>
       </c>
       <c r="T11">
-        <v>0.03361017734882583</v>
+        <v>0.02758321086837317</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>43.730186</v>
       </c>
       <c r="I12">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J12">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N12">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q12">
-        <v>369.798807905564</v>
+        <v>446.1911087002405</v>
       </c>
       <c r="R12">
-        <v>3328.189271150076</v>
+        <v>4015.719978302165</v>
       </c>
       <c r="S12">
-        <v>0.09489617731968421</v>
+        <v>0.1046530182403725</v>
       </c>
       <c r="T12">
-        <v>0.09489617731968422</v>
+        <v>0.1046530182403725</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>43.730186</v>
       </c>
       <c r="I13">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J13">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N13">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q13">
-        <v>364.6216883632151</v>
+        <v>568.7025221080918</v>
       </c>
       <c r="R13">
-        <v>3281.595195268937</v>
+        <v>5118.322698972826</v>
       </c>
       <c r="S13">
-        <v>0.09356764720116256</v>
+        <v>0.1333877664951594</v>
       </c>
       <c r="T13">
-        <v>0.09356764720116259</v>
+        <v>0.1333877664951594</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H14">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I14">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J14">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N14">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q14">
-        <v>0.1350545218144444</v>
+        <v>57.5725418729678</v>
       </c>
       <c r="R14">
-        <v>1.21549069633</v>
+        <v>518.1528768567101</v>
       </c>
       <c r="S14">
-        <v>3.465710969301328E-05</v>
+        <v>0.01350349694848829</v>
       </c>
       <c r="T14">
-        <v>3.465710969301328E-05</v>
+        <v>0.01350349694848829</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H15">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I15">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J15">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q15">
-        <v>0.4777693540355555</v>
+        <v>123.0695477707111</v>
       </c>
       <c r="R15">
-        <v>4.29992418632</v>
+        <v>1107.6259299364</v>
       </c>
       <c r="S15">
-        <v>0.0001226031138262815</v>
+        <v>0.02886565728573354</v>
       </c>
       <c r="T15">
-        <v>0.0001226031138262815</v>
+        <v>0.02886565728573354</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H16">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I16">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J16">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N16">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q16">
-        <v>0.1868377255337778</v>
+        <v>79.20687831256224</v>
       </c>
       <c r="R16">
-        <v>1.681539529804</v>
+        <v>712.8619048130601</v>
       </c>
       <c r="S16">
-        <v>4.794549239538825E-05</v>
+        <v>0.01857777691929851</v>
       </c>
       <c r="T16">
-        <v>4.794549239538827E-05</v>
+        <v>0.01857777691929851</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H17">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I17">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J17">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N17">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q17">
-        <v>0.04966416967244444</v>
+        <v>11.48687447460889</v>
       </c>
       <c r="R17">
-        <v>0.446977527052</v>
+        <v>103.38187027148</v>
       </c>
       <c r="S17">
-        <v>1.274460531218024E-05</v>
+        <v>0.002694217926972925</v>
       </c>
       <c r="T17">
-        <v>1.274460531218024E-05</v>
+        <v>0.002694217926972926</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H18">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I18">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J18">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N18">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q18">
-        <v>0.140223593668</v>
+        <v>43.58216632765112</v>
       </c>
       <c r="R18">
-        <v>1.262012343012</v>
+        <v>392.2394969488601</v>
       </c>
       <c r="S18">
-        <v>3.598357464829908E-05</v>
+        <v>0.01022208905266821</v>
       </c>
       <c r="T18">
-        <v>3.598357464829909E-05</v>
+        <v>0.01022208905266821</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H19">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I19">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J19">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N19">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q19">
-        <v>0.1382604875368889</v>
+        <v>55.54859213055445</v>
       </c>
       <c r="R19">
-        <v>1.244344387832</v>
+        <v>499.93732917499</v>
       </c>
       <c r="S19">
-        <v>3.547981080825216E-05</v>
+        <v>0.01302878455467257</v>
       </c>
       <c r="T19">
-        <v>3.547981080825217E-05</v>
+        <v>0.01302878455467257</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H20">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I20">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J20">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N20">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q20">
-        <v>92.44767080812612</v>
+        <v>5.537619695990667</v>
       </c>
       <c r="R20">
-        <v>832.029037273135</v>
+        <v>49.838577263916</v>
       </c>
       <c r="S20">
-        <v>0.02372352310026938</v>
+        <v>0.001298834969484108</v>
       </c>
       <c r="T20">
-        <v>0.02372352310026939</v>
+        <v>0.001298834969484108</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H21">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I21">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J21">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q21">
-        <v>327.043207222449</v>
+        <v>11.83745461882667</v>
       </c>
       <c r="R21">
-        <v>2943.388865002041</v>
+        <v>106.53709156944</v>
       </c>
       <c r="S21">
-        <v>0.08392441922556232</v>
+        <v>0.00277644563055584</v>
       </c>
       <c r="T21">
-        <v>0.08392441922556232</v>
+        <v>0.00277644563055584</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,14 +1768,14 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
         <v>3</v>
       </c>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H22">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I22">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J22">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N22">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q22">
-        <v>127.8943667537265</v>
+        <v>7.618520133597333</v>
       </c>
       <c r="R22">
-        <v>1151.049300783538</v>
+        <v>68.566681202376</v>
       </c>
       <c r="S22">
-        <v>0.03281970154092468</v>
+        <v>0.001786905007651437</v>
       </c>
       <c r="T22">
-        <v>0.03281970154092469</v>
+        <v>0.001786905007651437</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H23">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I23">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J23">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N23">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q23">
-        <v>33.99617241357711</v>
+        <v>1.104865970245333</v>
       </c>
       <c r="R23">
-        <v>305.965551722194</v>
+        <v>9.943793732208</v>
       </c>
       <c r="S23">
-        <v>0.00872395133943543</v>
+        <v>0.0002591435738692239</v>
       </c>
       <c r="T23">
-        <v>0.00872395133943543</v>
+        <v>0.0002591435738692239</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H24">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I24">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J24">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N24">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q24">
-        <v>95.98600959664601</v>
+        <v>4.191954268450666</v>
       </c>
       <c r="R24">
-        <v>863.8740863698141</v>
+        <v>37.727588416056</v>
       </c>
       <c r="S24">
-        <v>0.02463151636015639</v>
+        <v>0.0009832124799548665</v>
       </c>
       <c r="T24">
-        <v>0.02463151636015639</v>
+        <v>0.0009832124799548665</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H25">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I25">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J25">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N25">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q25">
-        <v>94.64222201417824</v>
+        <v>5.342945922822666</v>
       </c>
       <c r="R25">
-        <v>851.7799981276041</v>
+        <v>48.086513305404</v>
       </c>
       <c r="S25">
-        <v>0.0242866793785877</v>
+        <v>0.001253174718670011</v>
       </c>
       <c r="T25">
-        <v>0.02428667937858771</v>
+        <v>0.001253174718670011</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H26">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I26">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J26">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N26">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q26">
-        <v>1.666419028271666</v>
+        <v>0.6247620706364446</v>
       </c>
       <c r="R26">
-        <v>14.997771254445</v>
+        <v>5.622858635728001</v>
       </c>
       <c r="S26">
-        <v>0.000427629273580967</v>
+        <v>0.0001465363946060484</v>
       </c>
       <c r="T26">
-        <v>0.0004276292735809671</v>
+        <v>0.0001465363946060484</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H27">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I27">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J27">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q27">
-        <v>5.895129848253334</v>
+        <v>1.335518339057778</v>
       </c>
       <c r="R27">
-        <v>53.05616863428001</v>
+        <v>12.01966505152</v>
       </c>
       <c r="S27">
-        <v>0.001512782830671733</v>
+        <v>0.0003132425150848602</v>
       </c>
       <c r="T27">
-        <v>0.001512782830671733</v>
+        <v>0.0003132425150848602</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H28">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I28">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J28">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N28">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q28">
-        <v>2.305364802640666</v>
+        <v>0.8595321952675556</v>
       </c>
       <c r="R28">
-        <v>20.748283223766</v>
+        <v>7.735789757408001</v>
       </c>
       <c r="S28">
-        <v>0.0005915927861882538</v>
+        <v>0.0002016011452392135</v>
       </c>
       <c r="T28">
-        <v>0.000591592786188254</v>
+        <v>0.0002016011452392135</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H29">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I29">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J29">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N29">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q29">
-        <v>0.6127993069286667</v>
+        <v>0.1246525383182222</v>
       </c>
       <c r="R29">
-        <v>5.515193762358</v>
+        <v>1.121872844864</v>
       </c>
       <c r="S29">
-        <v>0.0001572539187485233</v>
+        <v>2.923694379371797E-05</v>
       </c>
       <c r="T29">
-        <v>0.0001572539187485233</v>
+        <v>2.923694379371798E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H30">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I30">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J30">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N30">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q30">
-        <v>1.730199489522</v>
+        <v>0.4729421976497779</v>
       </c>
       <c r="R30">
-        <v>15.571795405698</v>
+        <v>4.256479778848001</v>
       </c>
       <c r="S30">
-        <v>0.0004439963408374103</v>
+        <v>0.0001109274198256953</v>
       </c>
       <c r="T30">
-        <v>0.0004439963408374103</v>
+        <v>0.0001109274198256953</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H31">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I31">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J31">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N31">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q31">
-        <v>1.705976995025333</v>
+        <v>0.6027987007591111</v>
       </c>
       <c r="R31">
-        <v>15.353792955228</v>
+        <v>5.425188306832</v>
       </c>
       <c r="S31">
-        <v>0.0004377804686286828</v>
+        <v>0.0001413849406582361</v>
       </c>
       <c r="T31">
-        <v>0.0004377804686286829</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H32">
-        <v>1.890187</v>
-      </c>
-      <c r="I32">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J32">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>24.43393833333333</v>
-      </c>
-      <c r="N32">
-        <v>73.30181499999999</v>
-      </c>
-      <c r="O32">
-        <v>0.1197493722400791</v>
-      </c>
-      <c r="P32">
-        <v>0.1197493722400791</v>
-      </c>
-      <c r="Q32">
-        <v>15.39490419882277</v>
-      </c>
-      <c r="R32">
-        <v>138.554137789405</v>
-      </c>
-      <c r="S32">
-        <v>0.003950574007918688</v>
-      </c>
-      <c r="T32">
-        <v>0.003950574007918688</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H33">
-        <v>1.890187</v>
-      </c>
-      <c r="I33">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J33">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>86.43758666666668</v>
-      </c>
-      <c r="N33">
-        <v>259.31276</v>
-      </c>
-      <c r="O33">
-        <v>0.4236258027695808</v>
-      </c>
-      <c r="P33">
-        <v>0.4236258027695808</v>
-      </c>
-      <c r="Q33">
-        <v>54.46106754290222</v>
-      </c>
-      <c r="R33">
-        <v>490.14960788612</v>
-      </c>
-      <c r="S33">
-        <v>0.01397556458291868</v>
-      </c>
-      <c r="T33">
-        <v>0.01397556458291868</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H34">
-        <v>1.890187</v>
-      </c>
-      <c r="I34">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J34">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>33.80250733333333</v>
-      </c>
-      <c r="N34">
-        <v>101.407522</v>
-      </c>
-      <c r="O34">
-        <v>0.1656642076314483</v>
-      </c>
-      <c r="P34">
-        <v>0.1656642076314483</v>
-      </c>
-      <c r="Q34">
-        <v>21.29768664295711</v>
-      </c>
-      <c r="R34">
-        <v>191.679179786614</v>
-      </c>
-      <c r="S34">
-        <v>0.005465320614784812</v>
-      </c>
-      <c r="T34">
-        <v>0.005465320614784813</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H35">
-        <v>1.890187</v>
-      </c>
-      <c r="I35">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J35">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>8.985195333333333</v>
-      </c>
-      <c r="N35">
-        <v>26.955586</v>
-      </c>
-      <c r="O35">
-        <v>0.04403594238237437</v>
-      </c>
-      <c r="P35">
-        <v>0.04403594238237437</v>
-      </c>
-      <c r="Q35">
-        <v>5.661233137175778</v>
-      </c>
-      <c r="R35">
-        <v>50.951098234582</v>
-      </c>
-      <c r="S35">
-        <v>0.001452761264094442</v>
-      </c>
-      <c r="T35">
-        <v>0.001452761264094442</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H36">
-        <v>1.890187</v>
-      </c>
-      <c r="I36">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J36">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>25.369122</v>
-      </c>
-      <c r="N36">
-        <v>76.107366</v>
-      </c>
-      <c r="O36">
-        <v>0.1243326553557499</v>
-      </c>
-      <c r="P36">
-        <v>0.1243326553557499</v>
-      </c>
-      <c r="Q36">
-        <v>15.984128201938</v>
-      </c>
-      <c r="R36">
-        <v>143.857153817442</v>
-      </c>
-      <c r="S36">
-        <v>0.00410177813374409</v>
-      </c>
-      <c r="T36">
-        <v>0.00410177813374409</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H37">
-        <v>1.890187</v>
-      </c>
-      <c r="I37">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J37">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>25.01395866666667</v>
-      </c>
-      <c r="N37">
-        <v>75.041876</v>
-      </c>
-      <c r="O37">
-        <v>0.1225920196207674</v>
-      </c>
-      <c r="P37">
-        <v>0.1225920196207674</v>
-      </c>
-      <c r="Q37">
-        <v>15.76035316342355</v>
-      </c>
-      <c r="R37">
-        <v>141.843178470812</v>
-      </c>
-      <c r="S37">
-        <v>0.004044353947184763</v>
-      </c>
-      <c r="T37">
-        <v>0.004044353947184763</v>
+        <v>0.0001413849406582361</v>
       </c>
     </row>
   </sheetData>
